--- a/엑셀/Cloth.xlsx
+++ b/엑셀/Cloth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="47">
   <si>
     <r>
       <t>N</t>
@@ -48,101 +48,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cloth_blind1</t>
-  </si>
-  <si>
-    <r>
-      <t>스킨0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>clothIconTest</t>
-  </si>
-  <si>
-    <r>
-      <t>스킨02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>스킨03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>스킨04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>스킨05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>스킨06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <r>
@@ -170,6 +76,166 @@
   </si>
   <si>
     <t>CombinationNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로얄기사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_로얄기사_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_전투의병_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투의병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_초록요정_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록요정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_황금기사_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금기사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_날개갑옷_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개갑옷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_세일러걸_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세일러걸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_해적왕_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_귀족영애_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족영애</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_태양기사_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양기사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_딸기밀크_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기밀크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_레드카니발_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 카니발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_비스크돌_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비스크돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_숲의정령_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의 정령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_귀족마도사_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족마도사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_냥냥펀치_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥냥펀치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_핑크교복_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크교복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_마법소녀_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법소녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_아이돌_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_웨딩드레스_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨딩드레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의상_이상한앨리스_pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한앨리스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -490,16 +556,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -512,27 +579,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -546,13 +613,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -566,13 +633,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -586,13 +653,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -606,13 +673,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -626,19 +693,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -646,19 +713,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -666,19 +733,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -686,19 +753,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -706,19 +773,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -726,19 +793,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -746,19 +813,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -766,19 +833,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -786,19 +853,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -806,19 +873,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -826,19 +893,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -846,19 +913,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -866,19 +933,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -886,19 +953,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -906,19 +973,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -926,19 +993,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -946,19 +1013,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -966,19 +1033,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -986,19 +1053,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>15</v>
@@ -1006,19 +1073,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -1026,19 +1093,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1046,19 +1113,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -1066,19 +1133,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1086,19 +1153,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -1106,21 +1173,1421 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>13</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>13</v>
+      </c>
+      <c r="F60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>13</v>
+      </c>
+      <c r="F65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>13</v>
+      </c>
+      <c r="F70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>14</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>13</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>14</v>
+      </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>13</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>14</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
         <v>6</v>
       </c>
-      <c r="E31">
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F31">
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>13</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>14</v>
+      </c>
+      <c r="F91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>12</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>11</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>12</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>13</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>14</v>
+      </c>
+      <c r="F101">
         <v>20</v>
       </c>
     </row>

--- a/엑셀/Cloth.xlsx
+++ b/엑셀/Cloth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="133">
   <si>
     <r>
       <t>N</t>
@@ -48,9 +48,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>clothIconTest</t>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -659,6 +656,225 @@
   <si>
     <t>SkinName</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero-skin-armor_thm</t>
+  </si>
+  <si>
+    <t>cloth_101_thm</t>
+  </si>
+  <si>
+    <t>cloth_102_thm</t>
+  </si>
+  <si>
+    <t>cloth_103_thm</t>
+  </si>
+  <si>
+    <r>
+      <t>cloth_10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>_thm</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cloth_105_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cloth_106_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cloth_107_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cloth_108_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>cloth_109_thm</t>
+  </si>
+  <si>
+    <t>cloth_110_thm</t>
+  </si>
+  <si>
+    <t>cloth_111_thm</t>
+  </si>
+  <si>
+    <t>cloth_112_thm</t>
+  </si>
+  <si>
+    <t>cloth_109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cloth_11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>_thm</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cloth_114_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cloth_115_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cloth_116_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cloth_117_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cloth_118_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cloth_119_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cloth_120_thm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
@@ -980,15 +1196,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
@@ -1003,33 +1219,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1043,16 +1259,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1066,16 +1282,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1089,16 +1305,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1112,16 +1328,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1135,16 +1351,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1158,16 +1374,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1181,16 +1397,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1204,16 +1420,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1227,16 +1443,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1250,16 +1466,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1273,16 +1489,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1296,16 +1512,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1319,16 +1535,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1342,16 +1558,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1365,16 +1581,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1388,16 +1604,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1411,16 +1627,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1434,16 +1650,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1457,16 +1673,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1480,16 +1696,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1503,16 +1719,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1526,16 +1742,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1549,16 +1765,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1572,16 +1788,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1595,16 +1811,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1618,16 +1834,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1641,16 +1857,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1664,16 +1880,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1687,16 +1903,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1710,16 +1926,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1733,16 +1949,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1756,16 +1972,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1779,16 +1995,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1802,16 +2018,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1825,16 +2041,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1848,16 +2064,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1871,16 +2087,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1894,16 +2110,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1917,16 +2133,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1940,16 +2156,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -1963,16 +2179,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -1986,16 +2202,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2009,16 +2225,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -2032,16 +2248,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2055,16 +2271,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2078,16 +2294,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2101,16 +2317,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -2124,16 +2340,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2147,16 +2363,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2170,16 +2386,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52">
         <v>4</v>
@@ -2193,16 +2409,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -2216,16 +2432,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -2239,16 +2455,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -2262,16 +2478,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -2285,16 +2501,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -2308,16 +2524,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E58">
         <v>4</v>
@@ -2331,16 +2547,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -2354,16 +2570,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -2377,16 +2593,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -2400,16 +2616,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -2423,16 +2639,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -2446,16 +2662,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -2469,16 +2685,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -2492,16 +2708,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -2515,16 +2731,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -2538,16 +2754,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E68">
         <v>4</v>
@@ -2561,16 +2777,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -2584,16 +2800,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -2607,16 +2823,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E71">
         <v>4</v>
@@ -2630,16 +2846,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E72">
         <v>5</v>
@@ -2653,16 +2869,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E73">
         <v>5</v>
@@ -2676,16 +2892,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -2699,16 +2915,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -2722,16 +2938,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" t="s">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -2745,16 +2961,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -2768,16 +2984,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -2791,16 +3007,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -2814,16 +3030,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -2837,16 +3053,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -2860,16 +3076,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -2883,16 +3099,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -2906,16 +3122,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -2929,16 +3145,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -2952,16 +3168,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -2975,16 +3191,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87">
         <v>6</v>
@@ -2998,16 +3214,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E88">
         <v>6</v>
@@ -3021,16 +3237,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E89">
         <v>6</v>
@@ -3044,16 +3260,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E90">
         <v>6</v>
@@ -3067,16 +3283,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E91">
         <v>6</v>
@@ -3090,16 +3306,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2</v>
+        <v>103</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -3113,16 +3329,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2</v>
+        <v>102</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E93">
         <v>6</v>
@@ -3136,16 +3352,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2</v>
+        <v>102</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E94">
         <v>6</v>
@@ -3159,16 +3375,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2</v>
+        <v>102</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -3182,16 +3398,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2</v>
+        <v>102</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E96">
         <v>6</v>
@@ -3205,16 +3421,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E97">
         <v>6</v>
@@ -3228,16 +3444,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E98">
         <v>6</v>
@@ -3251,16 +3467,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -3274,16 +3490,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -3297,16 +3513,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E101">
         <v>6</v>
@@ -3320,16 +3536,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" t="s">
         <v>26</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s">
-        <v>27</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -3343,16 +3559,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D103" t="s">
         <v>26</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>27</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -3366,16 +3582,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" t="s">
         <v>26</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>27</v>
       </c>
       <c r="E104">
         <v>6</v>
@@ -3389,16 +3605,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" t="s">
         <v>26</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s">
-        <v>27</v>
       </c>
       <c r="E105">
         <v>6</v>
@@ -3412,16 +3628,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" t="s">
         <v>26</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s">
-        <v>27</v>
       </c>
       <c r="E106">
         <v>6</v>
